--- a/20240418_CSI_Assessments_findings_impacts_recommendation.xlsx
+++ b/20240418_CSI_Assessments_findings_impacts_recommendation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lb433\OneDrive\Documentos\mio\xagax\pptxautomate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755390E9-451A-44E7-998E-5E34428366D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A742F9-3172-49C4-9D2C-13AF7335966E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="950">
   <si>
     <t>Contact Information</t>
   </si>
@@ -2637,9 +2637,6 @@
     <t>Establish and enforce a robust process for addressing unauthorized assets on a weekly basis, utilizing measures such as removal from the network, denial of remote access, or quarantine, to mitigate the heightened risk of security incidents stemming from unauthorized asset presence within the enterprise infrastructure.</t>
   </si>
   <si>
-    <t>Comprehensive Enterprise Asset Inventory Management</t>
-  </si>
-  <si>
     <t>Utilize DHCP Logging for Enterprise Asset Inventory Management</t>
   </si>
   <si>
@@ -2714,9 +2711,6 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>An inventory and management processes, encompassing all devices capable of storing or processing data have not been implemented.</t>
-  </si>
-  <si>
     <t>Implement a discovery tool to identify devices connected to the organization's network and to update the data-capable device asset inventory.</t>
   </si>
   <si>
@@ -2736,9 +2730,6 @@
   </si>
   <si>
     <t>Inaccurate or outdated asset information, leaving the organization vulnerable to security inefficient resource allocation.</t>
-  </si>
-  <si>
-    <t>Without an inventory of data-capable devices it leaves the organization with lack of visibility and difficulty to ensure that appropriate devices are in place to safeguard sensitive information effectivelly associated with those devices.</t>
   </si>
   <si>
     <t>undetected unauthorized assets connecting to the network, which raises the potential for breaches or data leaks.</t>
@@ -3601,10 +3592,6 @@
     <t>Service provider contracts lacking security requirements could lead to severe data breaches, extensive financial losses, legal liabilities, reputational damage, and regulatory penalties</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Failure to assess service providers could result in reliance on unvetted partners.</t>
-  </si>
-  <si>
     <t>Service Providers are not assessed.</t>
   </si>
   <si>
@@ -3885,12 +3872,46 @@
   <si>
     <t>Attackers frequently exploit weaknesses in privileged accounts during human operated ransomware attacks and targeted data theft. Privileged access accounts and workstations are so attractive to attackers because these targets allow them to rapidly gain broad access to the business assets in the enterprise, often resulting in rapid and significant business impact.</t>
   </si>
+  <si>
+    <t>Failure to assess service providers could result in reliance on unvetted partners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establish and maintain a process to accept and address reports of software vulnerabilities, including providing a means for external entities to report. The process is to include such items as: a vulnerability handling policy that identifies reporting process, responsible party for handling vulnerability reports, and a process for intake, assignment, remediation, and remediation testing. As part of the process, use a vulnerability tracking system that includes severity ratings, and metrics for measuring timing for identification, analysis, and remediation of vulnerabilities. Review and update documentation annually, or when significant enterprise changes occur that could impact this Safeguard.
+Third-party application developers need to consider this an externally-facing policy that helps to set expectations for outside stakeholders. </t>
+  </si>
+  <si>
+    <t>Dispositivos</t>
+  </si>
+  <si>
+    <t>Identificar</t>
+  </si>
+  <si>
+    <t>Gestión integral del inventario de activos empresariales</t>
+  </si>
+  <si>
+    <t>No se han implementado procesos de inventario y gestión que abarquen todos los dispositivos capaces de almacenar o procesar datos.</t>
+  </si>
+  <si>
+    <t>Sin un inventario de dispositivos con capacidad de datos, la organización se queda con falta de visibilidad y dificultad para garantizar que existan los dispositivos adecuados para salvaguardar la información confidencial asociada de manera efectiva con esos dispositivos.</t>
+  </si>
+  <si>
+    <t>Medios de Pagos</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>BPS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4123,6 +4144,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4162,7 +4190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4385,11 +4413,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4630,6 +4703,18 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11517,9 +11602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11558,16 +11643,16 @@
         <v>551</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K1" s="53" t="s">
         <v>552</v>
@@ -11576,12 +11661,20 @@
         <v>558</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>652</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+        <v>649</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>949</v>
+      </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -11593,14 +11686,14 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="155" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="155.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>30</v>
@@ -11630,27 +11723,27 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+    <row r="3" spans="1:27" ht="171" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="88">
         <v>1</v>
       </c>
       <c r="B3" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>579</v>
+      <c r="C3" s="85" t="s">
+        <v>941</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>942</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>943</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>944</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>945</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
@@ -11666,12 +11759,20 @@
         <v>559</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+        <v>570</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -11697,13 +11798,13 @@
         <v>37</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
@@ -11719,7 +11820,7 @@
         <v>559</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -11753,10 +11854,10 @@
         <v>41</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
@@ -11772,7 +11873,7 @@
         <v>559</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -11803,13 +11904,13 @@
         <v>33</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
@@ -11825,7 +11926,7 @@
         <v>559</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -11859,10 +11960,10 @@
         <v>46</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
@@ -11878,7 +11979,7 @@
         <v>559</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -11902,7 +12003,7 @@
       <c r="B8" s="18"/>
       <c r="C8" s="20"/>
       <c r="D8" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>49</v>
@@ -11949,10 +12050,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
@@ -11968,7 +12069,7 @@
         <v>559</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -12002,10 +12103,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
@@ -12021,7 +12122,7 @@
         <v>559</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -12055,10 +12156,10 @@
         <v>56</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23" t="s">
@@ -12074,7 +12175,7 @@
         <v>559</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -12108,10 +12209,10 @@
         <v>59</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23" t="s">
@@ -12127,7 +12228,7 @@
         <v>559</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -12161,10 +12262,10 @@
         <v>62</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23" t="s">
@@ -12180,7 +12281,7 @@
         <v>559</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -12214,10 +12315,10 @@
         <v>64</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32" t="s">
@@ -12233,7 +12334,7 @@
         <v>559</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -12267,10 +12368,10 @@
         <v>561</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
@@ -12286,7 +12387,7 @@
         <v>559</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -12310,7 +12411,7 @@
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>69</v>
@@ -12357,10 +12458,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="50" t="s">
@@ -12376,7 +12477,7 @@
         <v>559</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -12410,10 +12511,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="50" t="s">
@@ -12429,7 +12530,7 @@
         <v>559</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -12463,10 +12564,10 @@
         <v>76</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50" t="s">
@@ -12482,7 +12583,7 @@
         <v>559</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12516,10 +12617,10 @@
         <v>78</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="50" t="s">
@@ -12535,7 +12636,7 @@
         <v>559</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12569,10 +12670,10 @@
         <v>80</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="50" t="s">
@@ -12588,7 +12689,7 @@
         <v>559</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12622,14 +12723,14 @@
         <v>82</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J22" s="48">
         <v>1</v>
@@ -12641,7 +12742,7 @@
         <v>559</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12675,10 +12776,10 @@
         <v>83</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52" t="s">
@@ -12694,7 +12795,7 @@
         <v>559</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12728,10 +12829,10 @@
         <v>85</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47" t="s">
@@ -12744,10 +12845,10 @@
         <v>560</v>
       </c>
       <c r="L24" s="59" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -12781,10 +12882,10 @@
         <v>87</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="50" t="s">
@@ -12800,7 +12901,7 @@
         <v>559</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12834,10 +12935,10 @@
         <v>90</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
@@ -12853,7 +12954,7 @@
         <v>559</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -12890,7 +12991,7 @@
         <v>556</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H27" s="54"/>
       <c r="I27" s="52" t="s">
@@ -12906,7 +13007,7 @@
         <v>559</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -12940,10 +13041,10 @@
         <v>95</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="31" t="s">
@@ -12959,7 +13060,7 @@
         <v>559</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -12993,10 +13094,10 @@
         <v>97</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H29" s="50"/>
       <c r="I29" s="50" t="s">
@@ -13012,7 +13113,7 @@
         <v>559</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -13046,14 +13147,14 @@
         <v>99</v>
       </c>
       <c r="F30" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="G30" s="49" t="s">
         <v>645</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>648</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="49" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J30" s="48">
         <v>2</v>
@@ -13062,10 +13163,10 @@
         <v>560</v>
       </c>
       <c r="L30" s="59" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -13089,7 +13190,7 @@
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>101</v>
@@ -13136,10 +13237,10 @@
         <v>103</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="32" t="s">
@@ -13155,7 +13256,7 @@
         <v>559</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -13189,10 +13290,10 @@
         <v>105</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23" t="s">
@@ -13208,7 +13309,7 @@
         <v>559</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -13242,10 +13343,10 @@
         <v>108</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23" t="s">
@@ -13261,7 +13362,7 @@
         <v>559</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -13292,13 +13393,13 @@
         <v>61</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23" t="s">
@@ -13314,7 +13415,7 @@
         <v>559</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -13348,10 +13449,10 @@
         <v>111</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23" t="s">
@@ -13367,7 +13468,7 @@
         <v>559</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -13401,10 +13502,10 @@
         <v>113</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="34" t="s">
@@ -13420,7 +13521,7 @@
         <v>559</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -13454,10 +13555,10 @@
         <v>115</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="32" t="s">
@@ -13473,7 +13574,7 @@
         <v>559</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -13507,10 +13608,10 @@
         <v>117</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32" t="s">
@@ -13526,7 +13627,7 @@
         <v>559</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -13560,10 +13661,10 @@
         <v>119</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="32" t="s">
@@ -13579,7 +13680,7 @@
         <v>559</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -13613,10 +13714,10 @@
         <v>121</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32" t="s">
@@ -13632,7 +13733,7 @@
         <v>559</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -13666,10 +13767,10 @@
         <v>123</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32" t="s">
@@ -13685,7 +13786,7 @@
         <v>559</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -13719,10 +13820,10 @@
         <v>125</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32" t="s">
@@ -13738,7 +13839,7 @@
         <v>559</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -13762,7 +13863,7 @@
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>128</v>
@@ -13809,10 +13910,10 @@
         <v>130</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" s="23" t="s">
@@ -13828,7 +13929,7 @@
         <v>559</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -13862,10 +13963,10 @@
         <v>132</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23" t="s">
@@ -13881,7 +13982,7 @@
         <v>559</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -13915,10 +14016,10 @@
         <v>134</v>
       </c>
       <c r="F47" s="66" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G47" s="66" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H47" s="66"/>
       <c r="I47" s="66" t="s">
@@ -13934,7 +14035,7 @@
         <v>559</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -13968,10 +14069,10 @@
         <v>136</v>
       </c>
       <c r="F48" s="66" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H48" s="67"/>
       <c r="I48" s="67" t="s">
@@ -13987,7 +14088,7 @@
         <v>559</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -14021,10 +14122,10 @@
         <v>139</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="52" t="s">
@@ -14040,7 +14141,7 @@
         <v>559</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -14074,10 +14175,10 @@
         <v>141</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G50" s="49" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H50" s="49"/>
       <c r="I50" s="49" t="s">
@@ -14093,7 +14194,7 @@
         <v>559</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -14117,7 +14218,7 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>144</v>
@@ -14164,10 +14265,10 @@
         <v>146</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23" t="s">
@@ -14183,7 +14284,7 @@
         <v>559</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -14217,10 +14318,10 @@
         <v>148</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23" t="s">
@@ -14236,7 +14337,7 @@
         <v>559</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -14270,10 +14371,10 @@
         <v>150</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="23" t="s">
@@ -14289,7 +14390,7 @@
         <v>559</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -14323,10 +14424,10 @@
         <v>152</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23" t="s">
@@ -14342,7 +14443,7 @@
         <v>559</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -14376,10 +14477,10 @@
         <v>154</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23" t="s">
@@ -14395,7 +14496,7 @@
         <v>559</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -14429,10 +14530,10 @@
         <v>156</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23" t="s">
@@ -14448,7 +14549,7 @@
         <v>559</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -14482,10 +14583,10 @@
         <v>158</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G58" s="49" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="23" t="s">
@@ -14501,7 +14602,7 @@
         <v>559</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -14535,10 +14636,10 @@
         <v>160</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="32" t="s">
@@ -14554,7 +14655,7 @@
         <v>559</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -14578,7 +14679,7 @@
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>163</v>
@@ -14625,10 +14726,10 @@
         <v>165</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H61" s="23"/>
       <c r="I61" s="23" t="s">
@@ -14644,7 +14745,7 @@
         <v>559</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -14678,10 +14779,10 @@
         <v>167</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="23" t="s">
@@ -14697,7 +14798,7 @@
         <v>559</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -14731,10 +14832,10 @@
         <v>169</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
@@ -14750,7 +14851,7 @@
         <v>559</v>
       </c>
       <c r="M63" s="69" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -14784,10 +14885,10 @@
         <v>171</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
@@ -14803,7 +14904,7 @@
         <v>559</v>
       </c>
       <c r="M64" s="69" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -14837,10 +14938,10 @@
         <v>173</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
@@ -14856,7 +14957,7 @@
         <v>559</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -14890,10 +14991,10 @@
         <v>175</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="23" t="s">
@@ -14909,7 +15010,7 @@
         <v>559</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -14943,10 +15044,10 @@
         <v>177</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="23" t="s">
@@ -14962,7 +15063,7 @@
         <v>559</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -14986,7 +15087,7 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>180</v>
@@ -15033,10 +15134,10 @@
         <v>182</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23" t="s">
@@ -15084,10 +15185,10 @@
         <v>184</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23" t="s">
@@ -15135,10 +15236,10 @@
         <v>186</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23" t="s">
@@ -15186,10 +15287,10 @@
         <v>188</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23" t="s">
@@ -15237,10 +15338,10 @@
         <v>190</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23" t="s">
@@ -15288,10 +15389,10 @@
         <v>192</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23" t="s">
@@ -15339,10 +15440,10 @@
         <v>194</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23" t="s">
@@ -15390,10 +15491,10 @@
         <v>196</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H76" s="31"/>
       <c r="I76" s="31" t="s">
@@ -15441,10 +15542,10 @@
         <v>198</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H77" s="34"/>
       <c r="I77" s="34" t="s">
@@ -15492,10 +15593,10 @@
         <v>200</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
@@ -15543,10 +15644,10 @@
         <v>202</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
@@ -15594,10 +15695,10 @@
         <v>204</v>
       </c>
       <c r="F80" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="G80" s="23" t="s">
         <v>751</v>
-      </c>
-      <c r="G80" s="23" t="s">
-        <v>754</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="32" t="s">
@@ -15635,7 +15736,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>207</v>
@@ -15682,10 +15783,10 @@
         <v>209</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
@@ -15733,10 +15834,10 @@
         <v>211</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
@@ -15784,10 +15885,10 @@
         <v>213</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
@@ -15835,10 +15936,10 @@
         <v>215</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
@@ -15886,10 +15987,10 @@
         <v>217</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
@@ -15937,10 +16038,10 @@
         <v>219</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
@@ -15988,10 +16089,10 @@
         <v>221</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23" t="s">
@@ -16074,10 +16175,10 @@
         <v>226</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
@@ -16125,10 +16226,10 @@
         <v>228</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
@@ -16176,10 +16277,10 @@
         <v>230</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H92" s="23"/>
       <c r="I92" s="23" t="s">
@@ -16227,10 +16328,10 @@
         <v>232</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
@@ -16278,10 +16379,10 @@
         <v>234</v>
       </c>
       <c r="F94" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="G94" s="32" t="s">
         <v>775</v>
-      </c>
-      <c r="G94" s="32" t="s">
-        <v>778</v>
       </c>
       <c r="H94" s="32"/>
       <c r="I94" s="32" t="s">
@@ -16329,10 +16430,10 @@
         <v>236</v>
       </c>
       <c r="F95" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>776</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>779</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
@@ -16380,10 +16481,10 @@
         <v>239</v>
       </c>
       <c r="F96" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="G96" s="23" t="s">
         <v>777</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>780</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" s="23" t="s">
@@ -16466,10 +16567,10 @@
         <v>245</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
@@ -16517,10 +16618,10 @@
         <v>247</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
@@ -16568,10 +16669,10 @@
         <v>249</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
@@ -16619,10 +16720,10 @@
         <v>251</v>
       </c>
       <c r="F101" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="G101" s="32" t="s">
         <v>785</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>788</v>
       </c>
       <c r="H101" s="32"/>
       <c r="I101" s="32" t="s">
@@ -16670,10 +16771,10 @@
         <v>253</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23" t="s">
@@ -16756,10 +16857,10 @@
         <v>257</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23" t="s">
@@ -16807,10 +16908,10 @@
         <v>259</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23" t="s">
@@ -16858,10 +16959,10 @@
         <v>261</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23" t="s">
@@ -16909,10 +17010,10 @@
         <v>263</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23" t="s">
@@ -16960,10 +17061,10 @@
         <v>265</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23" t="s">
@@ -17011,10 +17112,10 @@
         <v>267</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H109" s="32"/>
       <c r="I109" s="32" t="s">
@@ -17062,10 +17163,10 @@
         <v>269</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H110" s="32"/>
       <c r="I110" s="32" t="s">
@@ -17113,10 +17214,10 @@
         <v>272</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23" t="s">
@@ -17199,10 +17300,10 @@
         <v>277</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H113" s="32"/>
       <c r="I113" s="32" t="s">
@@ -17250,10 +17351,10 @@
         <v>279</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H114" s="23"/>
       <c r="I114" s="23" t="s">
@@ -17301,10 +17402,10 @@
         <v>281</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H115" s="32"/>
       <c r="I115" s="32" t="s">
@@ -17352,10 +17453,10 @@
         <v>283</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G116" s="23" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="H116" s="23"/>
       <c r="I116" s="23" t="s">
@@ -17403,10 +17504,10 @@
         <v>285</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H117" s="32"/>
       <c r="I117" s="32" t="s">
@@ -17454,10 +17555,10 @@
         <v>287</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H118" s="23"/>
       <c r="I118" s="23" t="s">
@@ -17505,10 +17606,10 @@
         <v>289</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H119" s="32"/>
       <c r="I119" s="32" t="s">
@@ -17556,10 +17657,10 @@
         <v>291</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="23" t="s">
@@ -17607,10 +17708,10 @@
         <v>293</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H121" s="23"/>
       <c r="I121" s="23" t="s">
@@ -17658,10 +17759,10 @@
         <v>295</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H122" s="23"/>
       <c r="I122" s="23" t="s">
@@ -17709,10 +17810,10 @@
         <v>297</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H123" s="23"/>
       <c r="I123" s="23" t="s">
@@ -17795,10 +17896,10 @@
         <v>302</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H125" s="23"/>
       <c r="I125" s="23" t="s">
@@ -17846,10 +17947,10 @@
         <v>304</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G126" s="23" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H126" s="23"/>
       <c r="I126" s="23" t="s">
@@ -17897,10 +17998,10 @@
         <v>306</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G127" s="23" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H127" s="23"/>
       <c r="I127" s="23" t="s">
@@ -17948,10 +18049,10 @@
         <v>308</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="H128" s="23"/>
       <c r="I128" s="23" t="s">
@@ -17999,10 +18100,10 @@
         <v>310</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H129" s="32"/>
       <c r="I129" s="32" t="s">
@@ -18050,10 +18151,10 @@
         <v>312</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H130" s="23"/>
       <c r="I130" s="23" t="s">
@@ -18101,10 +18202,10 @@
         <v>314</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H131" s="23"/>
       <c r="I131" s="23" t="s">
@@ -18152,10 +18253,10 @@
         <v>316</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G132" s="23" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H132" s="23"/>
       <c r="I132" s="23" t="s">
@@ -18203,10 +18304,10 @@
         <v>318</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H133" s="32"/>
       <c r="I133" s="32" t="s">
@@ -18289,10 +18390,10 @@
         <v>322</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G135" s="31" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H135" s="31"/>
       <c r="I135" s="31" t="s">
@@ -18340,10 +18441,10 @@
         <v>324</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H136" s="23"/>
       <c r="I136" s="23" t="s">
@@ -18391,10 +18492,10 @@
         <v>326</v>
       </c>
       <c r="F137" s="66" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G137" s="66" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H137" s="23"/>
       <c r="I137" s="23" t="s">
@@ -18442,10 +18543,10 @@
         <v>328</v>
       </c>
       <c r="F138" s="52" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G138" s="52" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H138" s="70"/>
       <c r="I138" s="32" t="s">
@@ -18493,10 +18594,10 @@
         <v>330</v>
       </c>
       <c r="F139" s="52" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G139" s="52" t="s">
-        <v>856</v>
+        <v>939</v>
       </c>
       <c r="H139" s="31"/>
       <c r="I139" s="31" t="s">
@@ -18544,10 +18645,10 @@
         <v>332</v>
       </c>
       <c r="F140" s="52" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G140" s="52" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H140" s="31"/>
       <c r="I140" s="31" t="s">
@@ -18595,10 +18696,10 @@
         <v>334</v>
       </c>
       <c r="F141" s="52" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G141" s="52" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H141" s="31"/>
       <c r="I141" s="31" t="s">
@@ -18681,10 +18782,10 @@
         <v>339</v>
       </c>
       <c r="F143" s="67" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G143" s="67" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="H143" s="34"/>
       <c r="I143" s="34" t="s">
@@ -18715,7 +18816,7 @@
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
     </row>
-    <row r="144" spans="1:27" ht="201.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:27" ht="186" x14ac:dyDescent="0.35">
       <c r="A144" s="22">
         <v>16</v>
       </c>
@@ -18732,14 +18833,14 @@
         <v>341</v>
       </c>
       <c r="F144" s="52" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G144" s="52" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H144" s="31"/>
-      <c r="I144" s="31" t="s">
-        <v>342</v>
+      <c r="I144" s="34" t="s">
+        <v>940</v>
       </c>
       <c r="J144" s="48">
         <v>1</v>
@@ -18783,10 +18884,10 @@
         <v>343</v>
       </c>
       <c r="F145" s="52" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="G145" s="52" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H145" s="70"/>
       <c r="I145" s="32" t="s">
@@ -18831,13 +18932,13 @@
         <v>61</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F146" s="67" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G146" s="67" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H146" s="34"/>
       <c r="I146" s="34" t="s">
@@ -18885,10 +18986,10 @@
         <v>346</v>
       </c>
       <c r="F147" s="50" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G147" s="50" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="H147" s="71"/>
       <c r="I147" s="23" t="s">
@@ -18936,10 +19037,10 @@
         <v>348</v>
       </c>
       <c r="F148" s="50" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G148" s="50" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="23" t="s">
@@ -18987,10 +19088,10 @@
         <v>350</v>
       </c>
       <c r="F149" s="50" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G149" s="50" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="23" t="s">
@@ -19038,10 +19139,10 @@
         <v>352</v>
       </c>
       <c r="F150" s="49" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G150" s="49" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H150" s="23"/>
       <c r="I150" s="23" t="s">
@@ -19089,10 +19190,10 @@
         <v>354</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="G151" s="23" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H151" s="23"/>
       <c r="I151" s="23" t="s">
@@ -19140,10 +19241,10 @@
         <v>356</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G152" s="23" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="H152" s="23"/>
       <c r="I152" s="23" t="s">
@@ -19191,10 +19292,10 @@
         <v>358</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="G153" s="23" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="H153" s="23"/>
       <c r="I153" s="23" t="s">
@@ -19242,10 +19343,10 @@
         <v>360</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32" t="s">
@@ -19293,10 +19394,10 @@
         <v>362</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G155" s="23" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H155" s="23"/>
       <c r="I155" s="23" t="s">
@@ -19344,10 +19445,10 @@
         <v>364</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G156" s="23" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H156" s="23"/>
       <c r="I156" s="23" t="s">
@@ -19430,10 +19531,10 @@
         <v>368</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H158" s="23"/>
       <c r="I158" s="23" t="s">
@@ -19481,10 +19582,10 @@
         <v>370</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="H159" s="23"/>
       <c r="I159" s="23" t="s">
@@ -19532,10 +19633,10 @@
         <v>372</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G160" s="23" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H160" s="23"/>
       <c r="I160" s="23" t="s">
@@ -19583,10 +19684,10 @@
         <v>374</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H161" s="23"/>
       <c r="I161" s="23" t="s">
@@ -19634,10 +19735,10 @@
         <v>376</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32" t="s">
@@ -19685,10 +19786,10 @@
         <v>378</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H163" s="23"/>
       <c r="I163" s="23" t="s">
@@ -19736,10 +19837,10 @@
         <v>380</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="H164" s="23"/>
       <c r="I164" s="23" t="s">
@@ -19787,10 +19888,10 @@
         <v>382</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="H165" s="23"/>
       <c r="I165" s="23" t="s">
@@ -19838,10 +19939,10 @@
         <v>384</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32" t="s">
@@ -19924,10 +20025,10 @@
         <v>390</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G168" s="23" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="H168" s="23"/>
       <c r="I168" s="23" t="s">
@@ -19975,10 +20076,10 @@
         <v>392</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H169" s="23"/>
       <c r="I169" s="23" t="s">
@@ -20026,10 +20127,10 @@
         <v>394</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="G170" s="23" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H170" s="23"/>
       <c r="I170" s="23" t="s">
@@ -20077,10 +20178,10 @@
         <v>396</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="H171" s="23"/>
       <c r="I171" s="23" t="s">
@@ -20128,10 +20229,10 @@
         <v>398</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G172" s="23" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="H172" s="23"/>
       <c r="I172" s="23" t="s">
@@ -20163,21 +20264,21 @@
       <c r="AA172" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D7 D9:D15 D32:D43 D45:D50 D61:D67">
+  <conditionalFormatting sqref="D4:D7 D9:D15 D32:D43 D45:D50 D61:D67">
     <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="Protect">
-      <formula>NOT(ISERROR(SEARCH(("Protect"),(D3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Protect"),(D4))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="Respond">
-      <formula>NOT(ISERROR(SEARCH(("Respond"),(D3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Respond"),(D4))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Detect">
-      <formula>NOT(ISERROR(SEARCH(("Detect"),(D3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Detect"),(D4))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Identify">
-      <formula>NOT(ISERROR(SEARCH(("Identify"),(D3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Identify"),(D4))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Identity">
-      <formula>NOT(ISERROR(SEARCH(("Identity"),(D3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Identity"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D30 D52:D59 D69:D80 D82:D88 D90:D96 D104:D111 D113:D123 D125:D133 D135:D141 D143:D156 D168:D172">
@@ -20252,23 +20353,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="76" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>31</v>
@@ -20276,7 +20377,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>50</v>
@@ -20284,7 +20385,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>70</v>
@@ -20292,7 +20393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>102</v>
@@ -20300,7 +20401,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>129</v>
@@ -20308,7 +20409,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>145</v>
@@ -20316,7 +20417,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>164</v>
@@ -20324,7 +20425,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>181</v>
@@ -20332,7 +20433,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>208</v>
@@ -20340,7 +20441,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>225</v>
@@ -20348,7 +20449,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>243</v>
@@ -20356,7 +20457,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B14" s="74" t="s">
         <v>256</v>
@@ -20364,7 +20465,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>276</v>
@@ -20372,7 +20473,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>300</v>
@@ -20380,7 +20481,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>321</v>
@@ -20388,7 +20489,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B18" s="74" t="s">
         <v>338</v>
@@ -20396,7 +20497,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B19" s="74" t="s">
         <v>367</v>
@@ -20404,7 +20505,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B20" s="74" t="s">
         <v>388</v>
